--- a/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/42寸墙体图纸/11964201 7寸宽42寸长42寸高墙体灰色无接口.xlsx
+++ b/技术图纸/调度平台图纸/墙体图纸/7寸宽墙体图纸/42寸墙体图纸/11964201 7寸宽42寸长42寸高墙体灰色无接口.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -147,29 +147,6 @@
   </si>
   <si>
     <t>碰珠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J-07-02</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06210014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破二联插座</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -671,9 +648,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,41 +732,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C25" sqref="C25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1081,16 +1058,16 @@
     <row r="2" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -1098,20 +1075,20 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="63">
         <f ca="1">TODAY()</f>
-        <v>41985</v>
-      </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="59" t="s">
+        <v>42209</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1123,17 +1100,17 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="B5" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="1"/>
@@ -1143,20 +1120,20 @@
       <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1165,23 +1142,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B8" s="63">
+      <c r="B8" s="73">
         <v>1</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="31">
         <v>1</v>
       </c>
       <c r="F8" s="31">
         <v>11010000</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="32">
         <v>1</v>
       </c>
@@ -1190,21 +1167,21 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="65"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="48"/>
       <c r="E9" s="31">
         <v>2</v>
       </c>
       <c r="F9" s="32">
         <v>11014201</v>
       </c>
-      <c r="G9" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="65"/>
+      <c r="G9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="48"/>
       <c r="I9" s="32">
         <v>1</v>
       </c>
@@ -1213,21 +1190,21 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="65"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="48"/>
       <c r="E10" s="31">
         <v>3</v>
       </c>
       <c r="F10" s="32">
         <v>11014202</v>
       </c>
-      <c r="G10" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="65"/>
+      <c r="G10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="48"/>
       <c r="I10" s="32">
         <v>1</v>
       </c>
@@ -1236,21 +1213,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="65"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="48"/>
       <c r="E11" s="31">
         <v>4</v>
       </c>
       <c r="F11" s="32">
         <v>11014204</v>
       </c>
-      <c r="G11" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="65"/>
+      <c r="G11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="48"/>
       <c r="I11" s="32">
         <v>1</v>
       </c>
@@ -1259,21 +1236,21 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="65"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="48"/>
       <c r="E12" s="34">
         <v>5</v>
       </c>
       <c r="F12" s="32">
         <v>11024211</v>
       </c>
-      <c r="G12" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="65"/>
+      <c r="G12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="48"/>
       <c r="I12" s="32">
         <v>1</v>
       </c>
@@ -1282,21 +1259,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="65"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="48"/>
       <c r="E13" s="34">
         <v>6</v>
       </c>
       <c r="F13" s="32">
         <v>11024212</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="65"/>
+      <c r="G13" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="48"/>
       <c r="I13" s="32">
         <v>1</v>
       </c>
@@ -1305,21 +1282,21 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="34">
         <v>7</v>
       </c>
       <c r="F14" s="32">
         <v>11030000</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="32">
         <v>2</v>
       </c>
@@ -1328,21 +1305,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="75"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="50"/>
       <c r="E15" s="42">
         <v>8</v>
       </c>
       <c r="F15" s="43">
         <v>11034200</v>
       </c>
-      <c r="G15" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="75"/>
+      <c r="G15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="50"/>
       <c r="I15" s="43">
         <v>1</v>
       </c>
@@ -1351,21 +1328,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="65"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="48"/>
       <c r="E16" s="34">
         <v>9</v>
       </c>
       <c r="F16" s="32">
         <v>11054200</v>
       </c>
-      <c r="G16" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="65"/>
+      <c r="G16" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="48"/>
       <c r="I16" s="32">
         <v>1</v>
       </c>
@@ -1374,21 +1351,21 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="65"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="48"/>
       <c r="E17" s="34">
         <v>10</v>
       </c>
       <c r="F17" s="32">
         <v>11054220</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="65"/>
+      <c r="G17" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="48"/>
       <c r="I17" s="32">
         <v>1</v>
       </c>
@@ -1400,18 +1377,18 @@
       <c r="B18" s="28">
         <v>2</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="28"/>
       <c r="F18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>4</v>
       </c>
@@ -1421,18 +1398,18 @@
       <c r="B19" s="28">
         <v>3</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="37"/>
       <c r="F19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="67"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="36">
         <v>2</v>
       </c>
@@ -1442,18 +1419,18 @@
       <c r="B20" s="28">
         <v>4</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="28"/>
       <c r="F20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="36">
         <v>2</v>
       </c>
@@ -1463,20 +1440,20 @@
       <c r="B21" s="28">
         <v>5</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="68"/>
+      <c r="H21" s="75"/>
       <c r="I21" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="28"/>
     </row>
@@ -1484,113 +1461,103 @@
       <c r="B22" s="28">
         <v>6</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="67"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="28">
+    <row r="23" spans="2:10" ht="16.5" customHeight="1">
+      <c r="B23" s="40">
         <v>7</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="35" t="s">
+      <c r="D23" s="55"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="45">
+        <v>1280072</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="36">
-        <v>2</v>
-      </c>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B24" s="40">
-        <v>8</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="45">
-        <v>1280072</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="41">
+      <c r="H23" s="51"/>
+      <c r="I23" s="41">
         <v>6</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="26"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="26"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="26"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="18"/>
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="26"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="12"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="26"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="15"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="26"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="12"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
@@ -1599,20 +1566,20 @@
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="26"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="12"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="13"/>
       <c r="F31" s="14"/>
       <c r="G31" s="22"/>
@@ -1622,19 +1589,19 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="12"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="13"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="12"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="13"/>
       <c r="F33" s="14"/>
       <c r="G33" s="20"/>
@@ -1643,10 +1610,10 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="12"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="14"/>
       <c r="G34" s="20"/>
       <c r="H34" s="15"/>
@@ -1654,20 +1621,20 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="15"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="71"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="12"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17"/>
@@ -1676,31 +1643,31 @@
       <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="71"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="12"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="15"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="71"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="12"/>
       <c r="F39" s="16"/>
       <c r="G39" s="17"/>
@@ -1709,15 +1676,15 @@
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="71"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="8"/>
@@ -1972,20 +1939,50 @@
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="57">
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
@@ -1999,51 +1996,8 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
